--- a/categories import.xlsx
+++ b/categories import.xlsx
@@ -404,12 +404,12 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,7 +426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -443,7 +443,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -460,7 +460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -477,7 +477,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
